--- a/utils/rebalance_tools/blog_posts/November_2019.xlsx
+++ b/utils/rebalance_tools/blog_posts/November_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoin\Desktop\Mike\Bletch\bcindex\utils\rebalance_tools\blog_posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95062F0A-9EAF-4135-BB1D-94FAB024FBF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E39F8B0-DAA4-4D4F-86F2-4FE45E5188CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="2340" windowWidth="21600" windowHeight="11385" tabRatio="889" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31485" yWindow="2685" windowWidth="21600" windowHeight="11385" tabRatio="889" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sharpe" sheetId="1" r:id="rId1"/>
@@ -4620,7 +4620,7 @@
   <dimension ref="A1:Z71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5044,7 +5044,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="41">
-        <v>7.7992213212408304E-2</v>
+        <v>7.7452937096422503E-5</v>
       </c>
       <c r="F11" s="52"/>
       <c r="G11" s="52"/>
@@ -5074,7 +5074,7 @@
         <v>47</v>
       </c>
       <c r="E12" s="43">
-        <v>0.23491162752324299</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F12" s="52"/>
       <c r="G12" s="52"/>
@@ -5104,7 +5104,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="35">
-        <v>0.27606336957249999</v>
+        <v>8.4831885217289908E-3</v>
       </c>
       <c r="F13" s="52"/>
       <c r="G13" s="52"/>
@@ -5134,7 +5134,7 @@
         <v>47</v>
       </c>
       <c r="E14" s="43">
-        <v>9.5157370582006004E-2</v>
+        <v>2.7668784701610802E-3</v>
       </c>
       <c r="F14" s="52"/>
       <c r="G14" s="52"/>
@@ -5190,7 +5190,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="35">
-        <v>0.25977546809706398</v>
+        <v>1.2934040681708799E-3</v>
       </c>
       <c r="F15" s="52"/>
       <c r="G15" s="52"/>
@@ -5248,7 +5248,7 @@
         <v>47</v>
       </c>
       <c r="E16" s="43">
-        <v>4.88624246979035E-2</v>
+        <v>3.54909636968666E-3</v>
       </c>
       <c r="F16" s="52"/>
       <c r="G16" s="52"/>
@@ -5314,7 +5314,7 @@
         <v>47</v>
       </c>
       <c r="E17" s="35">
-        <v>6.9611128087214105E-2</v>
+        <v>1.5151882642306699E-2</v>
       </c>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
@@ -5344,7 +5344,7 @@
         <v>47</v>
       </c>
       <c r="E18" s="51">
-        <v>0.18841394330917599</v>
+        <v>4.5671966486325599E-2</v>
       </c>
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
